--- a/output/xlsx/RF010 - Gerenciar Periodos Avaliativos--ART-.xlsx
+++ b/output/xlsx/RF010 - Gerenciar Periodos Avaliativos--ART-.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="59">
   <si>
     <t xml:space="preserve">System: </t>
   </si>
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Version: </t>
   </si>
   <si>
-    <t>0.1</t>
+    <t>1.0</t>
   </si>
   <si>
     <t>Suite Type:</t>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">Precondition: </t>
   </si>
   <si>
-    <t>Lider de Pessoas esta autenticado no sistema e  tem permissao para gerenciar perfis de competencias.</t>
+    <t>Lider de Pessoas esta autenticado no sistema e  tem permissao para gerenciar Periodos Avaliativos.</t>
   </si>
   <si>
     <t>#</t>
@@ -92,19 +92,19 @@
     <t>Actual Result</t>
   </si>
   <si>
-    <t>Usuario Nao-Autenticado acessa a funcionalidade de gestao de perfis de competencias a partir do menu inicial</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe a listagem dos perfis de competencias cadastrados apenas para visualizacao com a opcao 'Ajuda'</t>
+    <t>Usuario Nao-Autenticado acessa a funcionalidade de gestao de Periodos Avaliativos a partir do menu inicial</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe a listagem dos Periodos Avaliativos cadastrados apenas para visualizacao com a opcao 'Ajuda'</t>
   </si>
   <si>
     <t>TC2</t>
   </si>
   <si>
-    <t>Lider de Pessoas acessa a funcionalidade de gestao de perfis de competencias a partir do menu inicial</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe a listagem dos perfis de competencias cadastrados com opcoes de 'Novo', 'Editar', 'Excluir' e 'Ajuda'</t>
+    <t>Lider de Pessoas acessa a funcionalidade de gestao de Periodos Avaliativos a partir do menu inicial</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe a listagem dos Periodos Avaliativos cadastrados com opcoes de 'Novo', 'Editar', 'Excluir' e 'Ajuda'</t>
   </si>
   <si>
     <t>Lider de Pessoas seleciona um Periodo Avaliativo da listagem</t>
@@ -122,7 +122,7 @@
     <t>Lider de Pessoas nao confirma a exclusao do Periodo Avaliativo</t>
   </si>
   <si>
-    <t>SYSTEM exibe a listagem dos perfis de competencias com o Periodo Avaliativo excluido</t>
+    <t>SYSTEM exibe a listagem dos Periodos Avaliativos com o Periodo Avaliativo excluido</t>
   </si>
   <si>
     <t>TC3</t>
@@ -131,12 +131,18 @@
     <t>Lider de Pessoas confirma a exclusao do Periodo Avaliativo</t>
   </si>
   <si>
-    <t>SYSTEM exibe a listagem dos perfis de competencias sem o Periodo Avaliativo excluido</t>
+    <t>SYSTEM exibe a listagem dos Periodos Avaliativos sem o Periodo Avaliativo excluido</t>
   </si>
   <si>
     <t>TC4</t>
   </si>
   <si>
+    <t>SYSTEM exibe uma mensagem de erro ao tentar excluir o Periodo Avaliativo</t>
+  </si>
+  <si>
+    <t>TC5</t>
+  </si>
+  <si>
     <t>Lider de Pessoas clica na opcao 'Novo' para criar um novo Periodo Avaliativo</t>
   </si>
   <si>
@@ -149,7 +155,7 @@
     <t>SYSTEM apresenta o campo 'Nome' preenchido corretamente</t>
   </si>
   <si>
-    <t>Lider de Pessoas preenche o campo 'Data Inicial e Data Final' selecionando um lider da lista</t>
+    <t>Lider de Pessoas preenche o campo 'Data Inicial e Data Final' informando as respectivas datas referente ao periodo</t>
   </si>
   <si>
     <t>SYSTEM apresenta o campo 'Data Inicial e Data Final' preenchido corretamente</t>
@@ -161,18 +167,12 @@
     <t>SYSTEM exibe uma mensagem de erro ao tentar salvar o novo Periodo Avaliativo, informando o campo ou a validacao que falhou</t>
   </si>
   <si>
-    <t>TC5</t>
+    <t>TC6</t>
   </si>
   <si>
     <t>SYSTEM exibe uma mensagem de erro ao tentar editar o Periodo Avaliativo, informando o campo ou a validacao que falhou</t>
   </si>
   <si>
-    <t>TC6</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe uma mensagem de erro ao tentar excluir o Periodo Avaliativo</t>
-  </si>
-  <si>
     <t>TC7</t>
   </si>
   <si>
@@ -182,7 +182,7 @@
     <t xml:space="preserve">Postcondition: </t>
   </si>
   <si>
-    <t>A gestao de perfis de competencias e realizada com sucesso.</t>
+    <t>A gestao de Periodos Avaliativos e realizada com sucesso.</t>
   </si>
   <si>
     <t>TC8</t>
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F88"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" showGridLines="false"/>
   </sheetViews>
@@ -991,13 +991,13 @@
         <v>2.0</v>
       </c>
       <c r="B38" t="s" s="7">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C38" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D38" t="s" s="7">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E38" t="s" s="6">
         <v>2</v>
@@ -1011,13 +1011,13 @@
         <v>3.0</v>
       </c>
       <c r="B39" t="s" s="7">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C39" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D39" t="s" s="7">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E39" t="s" s="6">
         <v>2</v>
@@ -1031,13 +1031,13 @@
         <v>4.0</v>
       </c>
       <c r="B40" t="s" s="7">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C40" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D40" t="s" s="7">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E40" t="s" s="6">
         <v>2</v>
@@ -1046,120 +1046,120 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="B41" t="s" s="7">
-        <v>47</v>
-      </c>
-      <c r="C41" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D41" t="s" s="7">
-        <v>48</v>
-      </c>
-      <c r="E41" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F41" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
+    <row r="41"/>
     <row r="42"/>
-    <row r="43"/>
+    <row r="43">
+      <c r="A43" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B43" t="s" s="4">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D43" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E43" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F43" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
     <row r="44">
-      <c r="A44" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B44" t="s" s="4">
-        <v>49</v>
-      </c>
-      <c r="C44" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D44" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E44" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F44" t="s" s="4">
+      <c r="A44" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B44" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E44" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F44" t="s" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B45" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C45" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D45" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E45" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F45" t="s" s="9">
+      <c r="A45" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B45" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C45" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E45" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F45" t="s" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B46" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C46" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D46" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E46" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F46" t="s" s="8">
-        <v>2</v>
+      <c r="A46" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B46" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C46" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D46" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E46" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F46" t="s" s="5">
+        <v>25</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B47" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C47" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D47" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E47" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F47" t="s" s="5">
-        <v>25</v>
+      <c r="A47" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B47" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="C47" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="E47" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F47" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n" s="10">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B48" t="s" s="7">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C48" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D48" t="s" s="7">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E48" t="s" s="6">
         <v>2</v>
@@ -1170,16 +1170,16 @@
     </row>
     <row r="49">
       <c r="A49" t="n" s="10">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B49" t="s" s="7">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C49" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D49" t="s" s="7">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E49" t="s" s="6">
         <v>2</v>
@@ -1190,16 +1190,16 @@
     </row>
     <row r="50">
       <c r="A50" t="n" s="10">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B50" t="s" s="7">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C50" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D50" t="s" s="7">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E50" t="s" s="6">
         <v>2</v>
@@ -1210,16 +1210,16 @@
     </row>
     <row r="51">
       <c r="A51" t="n" s="10">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B51" t="s" s="7">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C51" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D51" t="s" s="7">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E51" t="s" s="6">
         <v>2</v>
@@ -1228,120 +1228,120 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="n" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="B52" t="s" s="7">
-        <v>47</v>
-      </c>
-      <c r="C52" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D52" t="s" s="7">
-        <v>50</v>
-      </c>
-      <c r="E52" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F52" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
+    <row r="52"/>
     <row r="53"/>
-    <row r="54"/>
+    <row r="54">
+      <c r="A54" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B54" t="s" s="4">
+        <v>51</v>
+      </c>
+      <c r="C54" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D54" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E54" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F54" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
     <row r="55">
-      <c r="A55" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B55" t="s" s="4">
-        <v>51</v>
-      </c>
-      <c r="C55" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D55" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E55" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F55" t="s" s="4">
+      <c r="A55" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B55" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C55" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D55" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E55" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F55" t="s" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B56" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C56" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D56" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E56" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F56" t="s" s="9">
+      <c r="A56" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B56" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C56" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E56" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F56" t="s" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B57" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C57" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D57" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E57" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F57" t="s" s="8">
-        <v>2</v>
+      <c r="A57" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B57" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C57" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D57" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E57" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F57" t="s" s="5">
+        <v>25</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B58" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C58" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D58" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E58" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F58" t="s" s="5">
-        <v>25</v>
+      <c r="A58" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B58" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="C58" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D58" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="E58" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F58" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n" s="10">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B59" t="s" s="7">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C59" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D59" t="s" s="7">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E59" t="s" s="6">
         <v>2</v>
@@ -1352,16 +1352,16 @@
     </row>
     <row r="60">
       <c r="A60" t="n" s="10">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B60" t="s" s="7">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C60" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D60" t="s" s="7">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E60" t="s" s="6">
         <v>2</v>
@@ -1372,16 +1372,16 @@
     </row>
     <row r="61">
       <c r="A61" t="n" s="10">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B61" t="s" s="7">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C61" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D61" t="s" s="7">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E61" t="s" s="6">
         <v>2</v>
@@ -1392,16 +1392,16 @@
     </row>
     <row r="62">
       <c r="A62" t="n" s="10">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B62" t="s" s="7">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C62" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D62" t="s" s="7">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E62" t="s" s="6">
         <v>2</v>
@@ -1410,120 +1410,120 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="n" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="B63" t="s" s="7">
-        <v>47</v>
-      </c>
-      <c r="C63" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D63" t="s" s="7">
-        <v>52</v>
-      </c>
-      <c r="E63" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F63" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
+    <row r="63"/>
     <row r="64"/>
-    <row r="65"/>
+    <row r="65">
+      <c r="A65" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B65" t="s" s="4">
+        <v>53</v>
+      </c>
+      <c r="C65" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D65" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E65" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F65" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
     <row r="66">
-      <c r="A66" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B66" t="s" s="4">
-        <v>53</v>
-      </c>
-      <c r="C66" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D66" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E66" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F66" t="s" s="4">
+      <c r="A66" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B66" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C66" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D66" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E66" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F66" t="s" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B67" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C67" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D67" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E67" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F67" t="s" s="9">
+      <c r="A67" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B67" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C67" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D67" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E67" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F67" t="s" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B68" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C68" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D68" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E68" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F68" t="s" s="8">
-        <v>2</v>
+      <c r="A68" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B68" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C68" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D68" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E68" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F68" t="s" s="5">
+        <v>25</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B69" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C69" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D69" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E69" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F69" t="s" s="5">
-        <v>25</v>
+      <c r="A69" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B69" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="C69" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D69" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="E69" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F69" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n" s="10">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B70" t="s" s="7">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C70" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D70" t="s" s="7">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E70" t="s" s="6">
         <v>2</v>
@@ -1534,16 +1534,16 @@
     </row>
     <row r="71">
       <c r="A71" t="n" s="10">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B71" t="s" s="7">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C71" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D71" t="s" s="7">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E71" t="s" s="6">
         <v>2</v>
@@ -1554,16 +1554,16 @@
     </row>
     <row r="72">
       <c r="A72" t="n" s="10">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B72" t="s" s="7">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C72" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D72" t="s" s="7">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E72" t="s" s="6">
         <v>2</v>
@@ -1574,16 +1574,16 @@
     </row>
     <row r="73">
       <c r="A73" t="n" s="10">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B73" t="s" s="7">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C73" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D73" t="s" s="7">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E73" t="s" s="6">
         <v>2</v>
@@ -1593,139 +1593,139 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="n" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="B74" t="s" s="7">
-        <v>47</v>
-      </c>
-      <c r="C74" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D74" t="s" s="7">
-        <v>54</v>
-      </c>
-      <c r="E74" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F74" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="8">
+      <c r="A74" t="s" s="8">
         <v>55</v>
       </c>
-      <c r="B75" t="s" s="8">
+      <c r="B74" t="s" s="8">
         <v>56</v>
       </c>
-      <c r="C75" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D75" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E75" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F75" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
+      <c r="C74" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D74" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E74" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F74" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75"/>
     <row r="76"/>
-    <row r="77"/>
+    <row r="77">
+      <c r="A77" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B77" t="s" s="4">
+        <v>57</v>
+      </c>
+      <c r="C77" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D77" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E77" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F77" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
     <row r="78">
-      <c r="A78" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B78" t="s" s="4">
-        <v>57</v>
-      </c>
-      <c r="C78" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D78" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E78" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F78" t="s" s="4">
+      <c r="A78" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B78" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C78" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E78" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F78" t="s" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B79" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C79" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D79" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E79" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F79" t="s" s="9">
+      <c r="A79" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B79" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C79" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E79" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F79" t="s" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B80" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C80" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D80" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E80" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F80" t="s" s="8">
-        <v>2</v>
+      <c r="A80" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B80" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C80" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D80" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E80" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F80" t="s" s="5">
+        <v>25</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B81" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C81" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D81" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E81" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F81" t="s" s="5">
-        <v>25</v>
+      <c r="A81" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B81" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="C81" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D81" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="E81" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F81" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n" s="10">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B82" t="s" s="7">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C82" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D82" t="s" s="7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E82" t="s" s="6">
         <v>2</v>
@@ -1736,16 +1736,16 @@
     </row>
     <row r="83">
       <c r="A83" t="n" s="10">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B83" t="s" s="7">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="C83" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D83" t="s" s="7">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="E83" t="s" s="6">
         <v>2</v>
@@ -1756,16 +1756,16 @@
     </row>
     <row r="84">
       <c r="A84" t="n" s="10">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B84" t="s" s="7">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C84" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D84" t="s" s="7">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E84" t="s" s="6">
         <v>2</v>
@@ -1776,16 +1776,16 @@
     </row>
     <row r="85">
       <c r="A85" t="n" s="10">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B85" t="s" s="7">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C85" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D85" t="s" s="7">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E85" t="s" s="6">
         <v>2</v>
@@ -1796,16 +1796,16 @@
     </row>
     <row r="86">
       <c r="A86" t="n" s="10">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="B86" t="s" s="7">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C86" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D86" t="s" s="7">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E86" t="s" s="6">
         <v>2</v>
@@ -1815,42 +1815,22 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="n" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B87" t="s" s="7">
-        <v>47</v>
-      </c>
-      <c r="C87" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D87" t="s" s="7">
-        <v>54</v>
-      </c>
-      <c r="E87" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F87" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="8">
+      <c r="A87" t="s" s="8">
         <v>55</v>
       </c>
-      <c r="B88" t="s" s="8">
+      <c r="B87" t="s" s="8">
         <v>56</v>
       </c>
-      <c r="C88" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D88" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E88" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F88" t="s" s="8">
+      <c r="C87" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D87" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E87" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F87" t="s" s="8">
         <v>2</v>
       </c>
     </row>
@@ -1865,16 +1845,16 @@
     <mergeCell ref="B25:F25"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:F57"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="B75:F75"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:F80"/>
-    <mergeCell ref="B88:F88"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="B74:F74"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:F79"/>
+    <mergeCell ref="B87:F87"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/output/xlsx/RF010 - Gerenciar Periodos Avaliativos--ART-.xlsx
+++ b/output/xlsx/RF010 - Gerenciar Periodos Avaliativos--ART-.xlsx
@@ -122,7 +122,7 @@
     <t>Lider de Pessoas nao confirma a exclusao do Periodo Avaliativo</t>
   </si>
   <si>
-    <t>SYSTEM exibe a listagem dos Periodos Avaliativos com o Periodo Avaliativo excluido</t>
+    <t>SYSTEM exibe a listagem dos Periodos Avaliativos com o Periodo Avaliativo nao excluido</t>
   </si>
   <si>
     <t>TC3</t>
@@ -155,10 +155,10 @@
     <t>SYSTEM apresenta o campo 'Nome' preenchido corretamente</t>
   </si>
   <si>
-    <t>Lider de Pessoas preenche o campo 'Data Inicial e Data Final' informando as respectivas datas referente ao periodo</t>
-  </si>
-  <si>
-    <t>SYSTEM apresenta o campo 'Data Inicial e Data Final' preenchido corretamente</t>
+    <t>Lider de Pessoas preenche o campo 'Data Inicial' e 'Data Final' informando as respectivas datas referentes ao periodo</t>
+  </si>
+  <si>
+    <t>SYSTEM apresenta o campo 'Data Inicial' e 'Data Final' preenchido corretamente</t>
   </si>
   <si>
     <t>Lider de Pessoas clica na opcao 'Salvar'</t>
